--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,124 +49,127 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>best</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>relief</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>19</t>
@@ -530,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,31 +667,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L4">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>18</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -699,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7727272727272727</v>
+        <v>0.28</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5416666666666666</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4285714285714285</v>
+        <v>0.187984496124031</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,31 +867,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>419</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L8">
+        <v>96</v>
+      </c>
+      <c r="M8">
+        <v>96</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>16</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.9</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3175965665236051</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,119 +917,71 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L9">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8125</v>
+      </c>
+      <c r="L10">
+        <v>104</v>
+      </c>
+      <c r="M10">
+        <v>104</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>66</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L10">
-        <v>48</v>
-      </c>
-      <c r="M10">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.15</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>68</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8518518518518519</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,21 +993,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,47 +1019,47 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L13">
+        <v>92</v>
+      </c>
+      <c r="M13">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>28</v>
-      </c>
-      <c r="K13">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L13">
-        <v>41</v>
-      </c>
-      <c r="M13">
-        <v>41</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1119,21 +1071,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,21 +1097,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.717948717948718</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,21 +1123,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7083333333333334</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,21 +1149,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,21 +1175,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.696969696969697</v>
+        <v>0.6625</v>
       </c>
       <c r="L19">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.684931506849315</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6842105263157895</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,21 +1305,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L24">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,21 +1331,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5862068965517241</v>
+        <v>0.5378590078328982</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,21 +1357,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5446009389671361</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L26">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="M26">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,21 +1383,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>97</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L27">
         <v>42</v>
       </c>
-      <c r="K27">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
       <c r="M27">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,21 +1409,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,21 +1435,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L29">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,21 +1461,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L30">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,21 +1487,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.48</v>
+        <v>0.375</v>
       </c>
       <c r="L32">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4573643410852713</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L33">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4565217391304348</v>
+        <v>0.3347280334728033</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M34">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>50</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3513513513513514</v>
+        <v>0.04567307692307692</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1665,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.2631578947368421</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1691,33 +1643,85 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>872</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37">
+        <v>0.02108768035516093</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="M37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38">
+        <v>0.009345794392523364</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>0.88</v>
+      </c>
+      <c r="O38">
+        <v>0.12</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K37">
-        <v>0.0106951871657754</v>
-      </c>
-      <c r="L37">
-        <v>12</v>
-      </c>
-      <c r="M37">
-        <v>13</v>
-      </c>
-      <c r="N37">
-        <v>0.92</v>
-      </c>
-      <c r="O37">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1110</v>
+      <c r="K39">
+        <v>0.009337068160597572</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>0.95</v>
+      </c>
+      <c r="O39">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2122</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,105 +43,117 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>credit</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -151,28 +163,25 @@
     <t>hope</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -530,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9545454545454546</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -649,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -699,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6095890410958904</v>
+        <v>0.589041095890411</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D5">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -741,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -749,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.28</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
         <v>21</v>
@@ -767,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1904761904761905</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>153</v>
+        <v>407</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9130434782608695</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.187984496124031</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>419</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,63 +908,87 @@
         <v>14</v>
       </c>
       <c r="B9">
+        <v>0.1798941798941799</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>155</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>0.07936507936507936</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>20</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>232</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9">
-        <v>0.8275862068965517</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -967,21 +1000,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -993,21 +1026,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1019,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7666666666666667</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1045,21 +1078,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1071,21 +1104,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7446808510638298</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1097,21 +1130,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7253521126760564</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1123,21 +1156,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6944444444444444</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1149,21 +1182,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.7112676056338029</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1175,21 +1208,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.6625</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1201,21 +1234,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.660377358490566</v>
+        <v>0.69375</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1227,21 +1260,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1253,21 +1286,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1279,21 +1312,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6190476190476191</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1305,21 +1338,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6063829787234043</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1331,21 +1364,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5378590078328982</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L25">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="M25">
-        <v>206</v>
+        <v>59</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1357,21 +1390,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4735294117647059</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1383,21 +1416,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4719101123595505</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1409,21 +1442,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4444444444444444</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1435,21 +1468,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4440677966101695</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1461,21 +1494,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>164</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.410958904109589</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1487,21 +1520,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1513,21 +1546,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.375</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1539,21 +1572,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.3461538461538461</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1565,21 +1598,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.3347280334728033</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L34">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1591,21 +1624,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>159</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.04567307692307692</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1617,21 +1650,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>397</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.02460850111856823</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1643,21 +1676,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>872</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
-        <v>0.02108768035516093</v>
+        <v>0.3125</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1669,59 +1702,111 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>882</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>0.009345794392523364</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M38">
         <v>33</v>
       </c>
       <c r="N38">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>3074</v>
+        <v>861</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K39">
-        <v>0.009337068160597572</v>
+        <v>0.02108768035516093</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40">
+        <v>0.01634750116767866</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>37</v>
+      </c>
+      <c r="N40">
         <v>0.95</v>
       </c>
-      <c r="O39">
+      <c r="O40">
         <v>0.05000000000000004</v>
       </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>2122</v>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41">
+        <v>0.009658725048293626</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+      <c r="M41">
+        <v>31</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
